--- a/Data/Calibration and Standards/20180606_LC cal curve conc.xlsx
+++ b/Data/Calibration and Standards/20180606_LC cal curve conc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrown\Documents\GitHub\Nutrition and Diapause\Lipids\Lipid Quantification\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrown\Documents\GitHub\Lipid_Quantification\Data\Calibration and Standards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C38400D-6099-4ECE-AF78-BB63B3555F78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{610B6782-8044-461F-B216-91CAE746CC14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>Vol of stock required (mL)</t>
   </si>
@@ -62,16 +62,32 @@
   <si>
     <t>Vol of DCM required in 4mL (mL)</t>
   </si>
+  <si>
+    <t>20180405</t>
+  </si>
+  <si>
+    <t>20180816</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +103,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,7 +142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,49 +159,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -180,13 +216,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -198,13 +235,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -216,23 +254,29 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -244,13 +288,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -262,13 +307,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -280,23 +326,29 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.00000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -308,13 +360,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -326,13 +379,14 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -344,9 +398,168 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.00000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -363,15 +576,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A30:C39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Normal">
-  <autoFilter ref="A30:C39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A43:C52" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Normal">
+  <autoFilter ref="A43:C52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="20180606" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Target Stock conc" dataDxfId="13">
-      <calculatedColumnFormula>(((A31*1)/$A$36))*5</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="20180606" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Target Stock conc" dataDxfId="21">
+      <calculatedColumnFormula>(((A44*1)/$A$49))*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Actual Stock conc (g)" dataDxfId="12">
-      <calculatedColumnFormula>5-B31</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Actual Stock conc (g)" dataDxfId="20">
+      <calculatedColumnFormula>5-B44</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -379,34 +592,66 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54C6C7BC-36E1-4D61-AAFB-BC6B9BAC621B}" name="Table13" displayName="Table13" ref="A15:C26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54C6C7BC-36E1-4D61-AAFB-BC6B9BAC621B}" name="Table13" displayName="Table13" ref="A15:C26" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Normal">
   <autoFilter ref="A15:C26" xr:uid="{A76741CA-AC78-4366-BE97-5044F232BB55}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{77A82C18-B614-42B5-9588-58739A7B7EE9}" name="20170821" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{397B09F1-F615-4EF5-9529-3CB4D47066BC}" name="Target Stock conc" dataDxfId="8">
-      <calculatedColumnFormula>(((A16*1)/$A$36))*5</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{77A82C18-B614-42B5-9588-58739A7B7EE9}" name="20170821" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{397B09F1-F615-4EF5-9529-3CB4D47066BC}" name="Target Stock conc" dataDxfId="16">
+      <calculatedColumnFormula>(((A16*1)/$A$49))*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{493DE132-9F78-4174-AF19-109BCCA78000}" name="Actual Stock conc (g)" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{493DE132-9F78-4174-AF19-109BCCA78000}" name="Actual Stock conc (g)" dataDxfId="15">
       <calculatedColumnFormula>5-B16</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BC62971-0C2D-42B1-A01F-0F894506A051}" name="Table134" displayName="Table134" ref="A1:C12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BC62971-0C2D-42B1-A01F-0F894506A051}" name="Table134" displayName="Table134" ref="A1:C12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal">
   <autoFilter ref="A1:C12" xr:uid="{57F1909A-EB94-4DD3-B422-DA6DD914D650}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A5832786-A7D5-4497-BF3E-9F65DC8535DD}" name="20170721" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{34590930-9CF2-4D1C-9036-3A70DFFF6D47}" name="Target Stock conc" dataDxfId="3">
-      <calculatedColumnFormula>(((A2*1)/$A$36))*5</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{A5832786-A7D5-4497-BF3E-9F65DC8535DD}" name="20170721" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{34590930-9CF2-4D1C-9036-3A70DFFF6D47}" name="Target Stock conc" dataDxfId="11">
+      <calculatedColumnFormula>(((A2*1)/$A$49))*5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{27BA35D9-8FFC-4530-A917-3868DDAFC4ED}" name="Actual Stock conc (g)" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{27BA35D9-8FFC-4530-A917-3868DDAFC4ED}" name="Actual Stock conc (g)" dataDxfId="10">
       <calculatedColumnFormula>5-B2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{29449F03-ED6C-424A-8C81-BB7C26C01661}" name="Table15" displayName="Table15" ref="A29:C40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal">
+  <autoFilter ref="A29:C40" xr:uid="{4A040780-ECA9-471E-91B0-33ACD448EEBF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{81EBE407-4271-4EF4-8218-1D2E29751544}" name="20180405" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9037B568-1FC9-4A51-A1E2-6A3A6213FBF8}" name="Target Stock conc" dataDxfId="6">
+      <calculatedColumnFormula>(((A30*1)/$A$49))*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3243F30F-4991-4C11-B0F7-9F28E1F27639}" name="Actual Stock conc (g)" dataDxfId="5">
+      <calculatedColumnFormula>5-B30</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C1F4465-1FE9-401C-8D1F-2D095B47EE13}" name="Table156" displayName="Table156" ref="A55:C64" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Normal">
+  <autoFilter ref="A55:C64" xr:uid="{FBBC94B0-8D9D-45E7-A8D9-435F92403F7C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BB32704F-17CA-4936-8296-F1A0B7E7BF57}" name="20180816" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{62D27EF5-FC72-48BC-8B87-019350B438B7}" name="Target Stock conc" dataDxfId="1">
+      <calculatedColumnFormula>(((A56*1)/$A$49))*5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E0DBA1FD-3ED1-4907-B367-F1C955569424}" name="Actual Stock conc (g)" dataDxfId="0">
+      <calculatedColumnFormula>5-B56</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -673,35 +918,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -713,7 +959,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -725,30 +971,30 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <f>0.0101</f>
         <v>1.01E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1E-3</v>
       </c>
       <c r="B6" s="1">
@@ -761,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B7" s="1">
@@ -774,7 +1020,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B8" s="1">
@@ -787,7 +1033,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B9" s="1">
@@ -800,7 +1046,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="B10" s="1">
@@ -813,7 +1059,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>1E-4</v>
       </c>
       <c r="B11" s="1">
@@ -826,7 +1072,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="B12" s="1">
@@ -839,28 +1085,28 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -872,7 +1118,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -884,30 +1130,30 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="3">
         <f>0.01</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>1E-3</v>
       </c>
       <c r="B20" s="1">
@@ -920,11 +1166,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="B21" s="1">
-        <f>(((A21*1)/$A$35))*4</f>
+        <f>(((A21*1)/$A$48))*4</f>
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -933,11 +1179,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="B22" s="1">
-        <f>(((A22*1)/$A$35))*4</f>
+        <f>(((A22*1)/$A$48))*4</f>
         <v>2</v>
       </c>
       <c r="C22" s="1">
@@ -946,11 +1192,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="B23" s="1">
-        <f>(((A23*1)/$A$35))*4</f>
+        <f>(((A23*1)/$A$48))*4</f>
         <v>1</v>
       </c>
       <c r="C23" s="1">
@@ -959,11 +1205,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="B24" s="1">
-        <f>(((A24*1)/$A$35))*4</f>
+        <f>(((A24*1)/$A$48))*4</f>
         <v>0.6</v>
       </c>
       <c r="C24" s="1">
@@ -972,11 +1218,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>1E-4</v>
       </c>
       <c r="B25" s="1">
-        <f>(((A25*1)/$A$36))*5</f>
+        <f>(((A25*1)/$A$49))*5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="C25" s="1">
@@ -985,11 +1231,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="B26" s="1">
-        <f>(((A26*1)/$A$36))*5</f>
+        <f>(((A26*1)/$A$49))*5</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C26" s="1">
@@ -998,180 +1244,628 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
+      <c r="A30" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
+      <c r="A31" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="1">
-        <v>1.06E-2</v>
+      <c r="C31" s="3">
+        <v>0.02</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
+      <c r="A32" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="B34" s="1">
+        <f>(((A34*1)/Table15[[#This Row],[20180405]]))*10</f>
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <f>10-B34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="B35" s="1">
+        <f>(((A35*1)/$A$48))*4</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <f>4-B35</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f>D35*$C$30*100</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F35" s="6">
+        <f>D35*$C$31*100</f>
+        <v>2</v>
+      </c>
+      <c r="G35" s="6">
+        <f>D35*$C$32*100</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B36" s="1">
+        <f>(((A36*1)/$A$48))*4</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36:C38" si="5">4-B36</f>
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:E53" si="6">D36*$C$30*100</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F53" si="7">D36*$C$31*100</f>
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" ref="G36:G53" si="8">D36*$C$32*100</f>
+        <v>1.7250000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B37" s="1">
+        <f>(((A37*1)/$A$48))*4</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="B38" s="1">
+        <f>(((A38*1)/$A$48))*4</f>
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="8"/>
+        <v>0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="B39" s="1">
+        <f>(((A39*1)/$A$48))*4</f>
+        <v>0.4</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:C40" si="9">4-B39</f>
+        <v>3.6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="6"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="8"/>
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="B40" s="1">
+        <f>(((A40*1)/$A$48))*4</f>
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="9"/>
+        <v>3.8</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="6">
+        <f>D41*$C$30*100</f>
+        <v>0.09</v>
+      </c>
+      <c r="F41" s="6">
+        <f>D41*$C$31*100</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="6">
+        <f>D41*$C$32*100</f>
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1">
         <v>1.0800000000000001E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <f>D45*$C$44*100</f>
+        <v>1.06</v>
+      </c>
+      <c r="F45" s="6">
+        <f>D45*$C$45*100</f>
+        <v>1.08</v>
+      </c>
+      <c r="G45" s="6">
+        <f>D45*$C$46*100</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C46" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="D46" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="6">
+        <f>D46*$C$44*100</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F46" s="6">
+        <f>D46*$C$45*100</f>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="G46" s="6">
+        <f>D46*$C$46*100</f>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="D47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="6">
+        <f>D47*$C$44*100</f>
+        <v>0.53</v>
+      </c>
+      <c r="F47" s="6">
+        <f>D47*$C$45*100</f>
+        <v>0.54</v>
+      </c>
+      <c r="G47" s="6">
+        <f>D47*$C$46*100</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B35" s="1">
-        <f>(((A35*1)/Table1[[#This Row],[20180606]]))*10</f>
+      <c r="B48" s="1">
+        <f>(((A48*1)/Table1[[#This Row],[20180606]]))*10</f>
         <v>10</v>
       </c>
-      <c r="C35" s="1">
-        <f>10-B35</f>
+      <c r="C48" s="1">
+        <f>10-B48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="D48" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E48" s="6">
+        <f>D48*$C$44*100</f>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F48" s="6">
+        <f>D48*$C$45*100</f>
+        <v>0.27</v>
+      </c>
+      <c r="G48" s="6">
+        <f>D48*$C$46*100</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="B36" s="1">
-        <f>(((A36*1)/$A$35))*4</f>
+      <c r="B49" s="1">
+        <f>(((A49*1)/$A$48))*4</f>
         <v>3</v>
       </c>
-      <c r="C36" s="1">
-        <f>4-B36</f>
+      <c r="C49" s="1">
+        <f>4-B49</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="D49" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="6">
+        <f>D49*$C$44*100</f>
+        <v>0.106</v>
+      </c>
+      <c r="F49" s="6">
+        <f>D49*$C$45*100</f>
+        <v>0.108</v>
+      </c>
+      <c r="G49" s="6">
+        <f>D49*$C$46*100</f>
+        <v>0.12200000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" ref="B37:B39" si="5">(((A37*1)/$A$35))*4</f>
+      <c r="B50" s="1">
+        <f>(((A50*1)/$A$48))*4</f>
         <v>2</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" ref="C37:C39" si="6">4-B37</f>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:C52" si="10">4-B50</f>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" si="5"/>
+      <c r="B51" s="1">
+        <f>(((A51*1)/$A$48))*4</f>
         <v>1</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="6"/>
+      <c r="C51" s="1">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" si="5"/>
+      <c r="B52" s="1">
+        <f>(((A52*1)/$A$48))*4</f>
         <v>0.04</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="6"/>
+      <c r="C52" s="1">
+        <f t="shared" si="10"/>
         <v>3.96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="B60" s="1">
+        <f>(((A60*1)/Table156[[#This Row],[20180816]]))*10</f>
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <f>10-B60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="B61" s="1">
+        <f>(((A61*1)/$A$48))*4</f>
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <f>4-B61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="B62" s="1">
+        <f>(((A62*1)/$A$48))*4</f>
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62:C64" si="11">4-B62</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="B63" s="1">
+        <f>(((A63*1)/$A$48))*4</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="12">
+        <v>1.25E-4</v>
+      </c>
+      <c r="B64" s="1">
+        <f>(((A64*1)/$A$48))*4</f>
+        <v>0.5</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>